--- a/branches/update-code-systems/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/update-code-systems/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/update-code-systems/StructureDefinition-viral-load-specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -993,6 +993,21 @@
   </si>
   <si>
     <t>SPM-4 and possibly SPM-5</t>
+  </si>
+  <si>
+    <t>Specimen.type.id</t>
+  </si>
+  <si>
+    <t>Specimen.type.extension</t>
+  </si>
+  <si>
+    <t>Specimen.type.coding</t>
+  </si>
+  <si>
+    <t>Specimen.type.text</t>
+  </si>
+  <si>
+    <t>Specimen Type</t>
   </si>
   <si>
     <t>Specimen.subject</t>
@@ -1826,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5666,7 +5681,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5678,21 +5693,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5740,7 +5753,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5752,13 +5765,13 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5766,21 +5779,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5789,18 +5802,20 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5837,48 +5852,48 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5898,21 +5913,23 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5960,7 +5977,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5975,21 +5992,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6000,7 +6017,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6009,21 +6026,23 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6032,7 +6051,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -6071,13 +6090,13 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -6086,21 +6105,21 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6108,7 +6127,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>84</v>
@@ -6120,19 +6139,21 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6180,7 +6201,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6195,21 +6216,21 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6229,16 +6250,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6289,7 +6310,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6301,28 +6322,28 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6341,16 +6362,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>133</v>
+        <v>342</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6400,7 +6421,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6412,10 +6433,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6426,14 +6447,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6446,26 +6467,24 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6513,7 +6532,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6525,24 +6544,24 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6562,16 +6581,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6622,7 +6641,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6637,21 +6656,21 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6659,7 +6678,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>84</v>
@@ -6671,16 +6690,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>156</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6719,17 +6738,19 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6741,37 +6762,35 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6780,18 +6799,20 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6840,68 +6861,72 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6949,25 +6974,25 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6975,10 +7000,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6998,16 +7023,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7058,7 +7083,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7073,21 +7098,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7095,7 +7120,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>84</v>
@@ -7107,16 +7132,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7143,31 +7168,29 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7182,29 +7205,31 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>84</v>
@@ -7216,20 +7241,18 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7254,13 +7277,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7278,7 +7301,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7293,21 +7316,21 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7330,20 +7353,16 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7367,13 +7386,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7391,7 +7410,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7409,18 +7428,18 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7431,7 +7450,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7443,13 +7462,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7500,13 +7519,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
@@ -7515,21 +7534,21 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7552,13 +7571,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>155</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>394</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7585,13 +7604,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7609,7 +7628,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>157</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7621,35 +7640,35 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>158</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7661,16 +7680,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7696,13 +7715,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7720,71 +7739,71 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>158</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7809,13 +7828,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7833,36 +7852,36 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7873,7 +7892,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7885,13 +7904,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7942,13 +7961,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7957,7 +7976,7 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7968,10 +7987,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7994,13 +8013,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>155</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
+        <v>156</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8027,13 +8046,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8051,7 +8070,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>423</v>
+        <v>157</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8063,10 +8082,10 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8077,14 +8096,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8103,15 +8122,17 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8160,7 +8181,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8172,56 +8193,60 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>432</v>
+        <v>158</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>433</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8269,22 +8294,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8295,10 +8320,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8309,7 +8334,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8321,13 +8346,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8378,13 +8403,13 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
@@ -8393,7 +8418,7 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8404,10 +8429,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8430,13 +8455,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>155</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>156</v>
+        <v>430</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8463,13 +8488,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8487,7 +8512,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>157</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8499,10 +8524,10 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8513,14 +8538,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8539,17 +8564,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>131</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8598,7 +8621,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8610,60 +8633,56 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>158</v>
+        <v>437</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>357</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8711,22 +8730,22 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>127</v>
+        <v>377</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8737,10 +8756,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8760,16 +8779,16 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8820,7 +8839,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8835,21 +8854,21 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>147</v>
+        <v>446</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8875,10 +8894,10 @@
         <v>154</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
+        <v>156</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8929,7 +8948,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8941,10 +8960,10 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>452</v>
+        <v>158</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8955,21 +8974,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8981,15 +9000,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9014,13 +9035,13 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>76</v>
@@ -9038,68 +9059,72 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>453</v>
+        <v>165</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9147,36 +9172,36 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>462</v>
+        <v>127</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9187,7 +9212,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9196,16 +9221,16 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9256,13 +9281,13 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
@@ -9271,21 +9296,21 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>147</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9308,13 +9333,13 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9341,13 +9366,13 @@
         <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -9365,7 +9390,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9380,21 +9405,21 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>476</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9405,7 +9430,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9414,23 +9439,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9454,13 +9475,13 @@
         <v>76</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>184</v>
+        <v>395</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>76</v>
@@ -9478,13 +9499,13 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
@@ -9493,21 +9514,21 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9530,13 +9551,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>486</v>
+        <v>387</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>50</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9587,13 +9608,13 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
@@ -9602,13 +9623,453 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>489</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
